--- a/Sistemas Operativos/Proyecto/iunstruccion.xlsx
+++ b/Sistemas Operativos/Proyecto/iunstruccion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xavier\Desktop\RepoGitSchool\Sistemas Operativos\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83ABF94D-0775-4497-9A5F-CCC4F866C033}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD6B07F-7FF3-451F-904F-03373E06E1DD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{D33B25B7-EF49-419F-9997-A878B17D1D1A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="3">
   <si>
     <t>00</t>
   </si>
@@ -39,37 +39,7 @@
     <t>03</t>
   </si>
   <si>
-    <t>A0</t>
-  </si>
-  <si>
     <t>01</t>
-  </si>
-  <si>
-    <t>7A</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>0A</t>
-  </si>
-  <si>
-    <t>3D</t>
-  </si>
-  <si>
-    <t>06</t>
   </si>
 </sst>
 </file>
@@ -424,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5D4AD8-0624-4019-9599-99AB88E2E750}">
   <dimension ref="A4:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C25"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,12 +404,12 @@
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="B4">
-        <v>20</v>
+      <c r="B4" s="1">
+        <v>10</v>
       </c>
       <c r="C4" t="str">
         <f>_xlfn.CONCAT("buffer[",A4,"]=(byte)0x",B4,";")</f>
-        <v>buffer[0]=(byte)0x20;</v>
+        <v>buffer[0]=(byte)0x10;</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -448,11 +418,11 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ref="C5:C53" si="0">_xlfn.CONCAT("buffer[",A5,"]=(byte)0x",B5,";")</f>
-        <v>buffer[1]=(byte)0x05;</v>
+        <v>buffer[1]=(byte)0x01;</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -460,12 +430,12 @@
         <f t="shared" ref="A6:A69" si="1" xml:space="preserve"> A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>41</v>
+      <c r="B6" s="1">
+        <v>10</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[2]=(byte)0x41;</v>
+        <v>buffer[2]=(byte)0x10;</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -473,12 +443,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[3]=(byte)0xC4;</v>
+        <v>buffer[3]=(byte)0x01;</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -486,12 +456,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
+      <c r="B8" s="1">
+        <v>10</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[4]=(byte)0x00;</v>
+        <v>buffer[4]=(byte)0x10;</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -500,11 +470,11 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[5]=(byte)0x00;</v>
+        <v>buffer[5]=(byte)0x01;</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -512,12 +482,12 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10">
-        <v>20</v>
+      <c r="B10" s="1">
+        <v>10</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[6]=(byte)0x20;</v>
+        <v>buffer[6]=(byte)0x10;</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -526,11 +496,11 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[7]=(byte)0x07;</v>
+        <v>buffer[7]=(byte)0x01;</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -538,12 +508,12 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12">
-        <v>41</v>
+      <c r="B12" s="1">
+        <v>10</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[8]=(byte)0x41;</v>
+        <v>buffer[8]=(byte)0x10;</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -551,12 +521,12 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" t="s">
-        <v>9</v>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[9]=(byte)0xB9;</v>
+        <v>buffer[9]=(byte)0x01;</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -564,12 +534,12 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="1">
         <v>10</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[10]=(byte)0x0A;</v>
+        <v>buffer[10]=(byte)0x10;</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -578,11 +548,11 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[11]=(byte)0x3D;</v>
+        <v>buffer[11]=(byte)0x01;</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -590,12 +560,12 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
+      <c r="B16" s="1">
+        <v>10</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[12]=(byte)0x06;</v>
+        <v>buffer[12]=(byte)0x10;</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -603,12 +573,12 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="1">
-        <v>75</v>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[13]=(byte)0x75;</v>
+        <v>buffer[13]=(byte)0x01;</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -617,11 +587,11 @@
         <v>14</v>
       </c>
       <c r="B18" s="1">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[14]=(byte)0x21;</v>
+        <v>buffer[14]=(byte)0x10;</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -630,11 +600,11 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[15]=(byte)0x00;</v>
+        <v>buffer[15]=(byte)0x01;</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -642,12 +612,12 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>0</v>
+      <c r="B20" s="1">
+        <v>10</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[16]=(byte)0x00;</v>
+        <v>buffer[16]=(byte)0x10;</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -656,11 +626,11 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[17]=(byte)0x00;</v>
+        <v>buffer[17]=(byte)0x01;</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -668,12 +638,12 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>0</v>
+      <c r="B22" s="1">
+        <v>10</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[18]=(byte)0x00;</v>
+        <v>buffer[18]=(byte)0x10;</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -682,11 +652,11 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[19]=(byte)0x00;</v>
+        <v>buffer[19]=(byte)0x01;</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -694,12 +664,12 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>0</v>
+      <c r="B24" s="1">
+        <v>10</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[20]=(byte)0x00;</v>
+        <v>buffer[20]=(byte)0x10;</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -708,11 +678,11 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[21]=(byte)0x00;</v>
+        <v>buffer[21]=(byte)0x01;</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -720,12 +690,12 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>0</v>
+      <c r="B26" s="1">
+        <v>10</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[22]=(byte)0x00;</v>
+        <v>buffer[22]=(byte)0x10;</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,11 +704,11 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[23]=(byte)0x00;</v>
+        <v>buffer[23]=(byte)0x01;</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -746,12 +716,12 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>0</v>
+      <c r="B28" s="1">
+        <v>10</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[24]=(byte)0x00;</v>
+        <v>buffer[24]=(byte)0x10;</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -760,11 +730,11 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[25]=(byte)0x00;</v>
+        <v>buffer[25]=(byte)0x01;</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -772,12 +742,12 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>0</v>
+      <c r="B30" s="1">
+        <v>10</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[26]=(byte)0x00;</v>
+        <v>buffer[26]=(byte)0x10;</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -786,11 +756,11 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[27]=(byte)0x00;</v>
+        <v>buffer[27]=(byte)0x01;</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -798,12 +768,12 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>0</v>
+      <c r="B32" s="1">
+        <v>10</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[28]=(byte)0x00;</v>
+        <v>buffer[28]=(byte)0x10;</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -812,11 +782,11 @@
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[29]=(byte)0x00;</v>
+        <v>buffer[29]=(byte)0x01;</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -824,12 +794,12 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>0</v>
+      <c r="B34" s="1">
+        <v>10</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[30]=(byte)0x00;</v>
+        <v>buffer[30]=(byte)0x10;</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -838,11 +808,11 @@
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[31]=(byte)0x00;</v>
+        <v>buffer[31]=(byte)0x01;</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,12 +820,12 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>0</v>
+      <c r="B36" s="1">
+        <v>10</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[32]=(byte)0x00;</v>
+        <v>buffer[32]=(byte)0x10;</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -864,11 +834,11 @@
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[33]=(byte)0x00;</v>
+        <v>buffer[33]=(byte)0x01;</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -876,12 +846,12 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>0</v>
+      <c r="B38" s="1">
+        <v>10</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[34]=(byte)0x00;</v>
+        <v>buffer[34]=(byte)0x10;</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -890,11 +860,11 @@
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[35]=(byte)0x00;</v>
+        <v>buffer[35]=(byte)0x01;</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -902,12 +872,12 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>0</v>
+      <c r="B40" s="1">
+        <v>10</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[36]=(byte)0x00;</v>
+        <v>buffer[36]=(byte)0x10;</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -916,11 +886,11 @@
         <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[37]=(byte)0x00;</v>
+        <v>buffer[37]=(byte)0x01;</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -928,12 +898,12 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>0</v>
+      <c r="B42" s="1">
+        <v>10</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[38]=(byte)0x00;</v>
+        <v>buffer[38]=(byte)0x10;</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -942,11 +912,11 @@
         <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[39]=(byte)0x00;</v>
+        <v>buffer[39]=(byte)0x01;</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -954,12 +924,12 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>0</v>
+      <c r="B44" s="1">
+        <v>10</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[40]=(byte)0x00;</v>
+        <v>buffer[40]=(byte)0x10;</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -967,10 +937,12 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[41]=(byte)0x;</v>
+        <v>buffer[41]=(byte)0x01;</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -978,12 +950,12 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>0</v>
+      <c r="B46" s="1">
+        <v>10</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[42]=(byte)0x00;</v>
+        <v>buffer[42]=(byte)0x10;</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -992,11 +964,11 @@
         <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[43]=(byte)0x00;</v>
+        <v>buffer[43]=(byte)0x01;</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1004,12 +976,12 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>0</v>
+      <c r="B48" s="1">
+        <v>10</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[44]=(byte)0x00;</v>
+        <v>buffer[44]=(byte)0x10;</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1018,11 +990,11 @@
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[45]=(byte)0x00;</v>
+        <v>buffer[45]=(byte)0x01;</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1030,12 +1002,12 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>0</v>
+      <c r="B50" s="1">
+        <v>10</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[46]=(byte)0x00;</v>
+        <v>buffer[46]=(byte)0x10;</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1044,11 +1016,11 @@
         <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[47]=(byte)0x00;</v>
+        <v>buffer[47]=(byte)0x01;</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1056,12 +1028,12 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>0</v>
+      <c r="B52" s="1">
+        <v>10</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[48]=(byte)0x00;</v>
+        <v>buffer[48]=(byte)0x10;</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1070,11 +1042,11 @@
         <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
-        <v>buffer[49]=(byte)0x00;</v>
+        <v>buffer[49]=(byte)0x01;</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1082,12 +1054,12 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B54">
-        <v>60</v>
+      <c r="B54" s="1">
+        <v>10</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" ref="C54:C76" si="2">_xlfn.CONCAT("buffer[",A54,"]=(byte)0x",B54,";")</f>
-        <v>buffer[50]=(byte)0x60;</v>
+        <f t="shared" ref="C54:C86" si="2">_xlfn.CONCAT("buffer[",A54,"]=(byte)0x",B54,";")</f>
+        <v>buffer[50]=(byte)0x10;</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1096,11 +1068,11 @@
         <v>51</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="2"/>
-        <v>buffer[51]=(byte)0x00;</v>
+        <v>buffer[51]=(byte)0x01;</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1108,12 +1080,12 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B56">
-        <v>41</v>
+      <c r="B56" s="1">
+        <v>10</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="2"/>
-        <v>buffer[52]=(byte)0x41;</v>
+        <v>buffer[52]=(byte)0x10;</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1121,12 +1093,12 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="2"/>
-        <v>buffer[53]=(byte)0xA0;</v>
+        <v>buffer[53]=(byte)0x01;</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1134,12 +1106,12 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>0</v>
+      <c r="B58" s="1">
+        <v>10</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="2"/>
-        <v>buffer[54]=(byte)0x00;</v>
+        <v>buffer[54]=(byte)0x10;</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1148,11 +1120,11 @@
         <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="2"/>
-        <v>buffer[55]=(byte)0x00;</v>
+        <v>buffer[55]=(byte)0x01;</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1160,12 +1132,12 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B60">
-        <v>60</v>
+      <c r="B60" s="1">
+        <v>10</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="2"/>
-        <v>buffer[56]=(byte)0x60;</v>
+        <v>buffer[56]=(byte)0x10;</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1174,7 +1146,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="2"/>
@@ -1186,12 +1158,12 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B62">
-        <v>41</v>
+      <c r="B62" s="1">
+        <v>10</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="2"/>
-        <v>buffer[58]=(byte)0x41;</v>
+        <v>buffer[58]=(byte)0x10;</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1199,12 +1171,12 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B63">
-        <v>18</v>
+      <c r="B63" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="2"/>
-        <v>buffer[59]=(byte)0x18;</v>
+        <v>buffer[59]=(byte)0x01;</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1212,12 +1184,12 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B64" t="s">
-        <v>4</v>
+      <c r="B64" s="1">
+        <v>10</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="2"/>
-        <v>buffer[60]=(byte)0x7A;</v>
+        <v>buffer[60]=(byte)0x10;</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1226,11 +1198,11 @@
         <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="2"/>
-        <v>buffer[61]=(byte)0xE1;</v>
+        <v>buffer[61]=(byte)0x01;</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1238,12 +1210,12 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B66">
-        <v>42</v>
+      <c r="B66" s="1">
+        <v>10</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="2"/>
-        <v>buffer[62]=(byte)0x42;</v>
+        <v>buffer[62]=(byte)0x10;</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1252,11 +1224,11 @@
         <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="2"/>
-        <v>buffer[63]=(byte)0x00;</v>
+        <v>buffer[63]=(byte)0x01;</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1264,12 +1236,12 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>3</v>
+      <c r="B68" s="1">
+        <v>10</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="2"/>
-        <v>buffer[64]=(byte)0x01;</v>
+        <v>buffer[64]=(byte)0x10;</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1277,12 +1249,12 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B69">
-        <v>25</v>
+      <c r="B69" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="2"/>
-        <v>buffer[65]=(byte)0x25;</v>
+        <v>buffer[65]=(byte)0x01;</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1290,12 +1262,12 @@
         <f t="shared" ref="A70:A92" si="3" xml:space="preserve"> A69+1</f>
         <v>66</v>
       </c>
-      <c r="B70">
-        <v>20</v>
+      <c r="B70" s="1">
+        <v>10</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="2"/>
-        <v>buffer[66]=(byte)0x20;</v>
+        <v>buffer[66]=(byte)0x10;</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1304,11 +1276,11 @@
         <v>67</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="2"/>
-        <v>buffer[67]=(byte)0x03;</v>
+        <v>buffer[67]=(byte)0x01;</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1316,12 +1288,12 @@
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>0</v>
+      <c r="B72" s="1">
+        <v>10</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="2"/>
-        <v>buffer[68]=(byte)0x00;</v>
+        <v>buffer[68]=(byte)0x10;</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1330,11 +1302,11 @@
         <v>69</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="2"/>
-        <v>buffer[69]=(byte)0x00;</v>
+        <v>buffer[69]=(byte)0x01;</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1342,12 +1314,12 @@
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>0</v>
+      <c r="B74" s="1">
+        <v>10</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="2"/>
-        <v>buffer[70]=(byte)0x00;</v>
+        <v>buffer[70]=(byte)0x10;</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1356,11 +1328,11 @@
         <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="2"/>
-        <v>buffer[71]=(byte)0x00;</v>
+        <v>buffer[71]=(byte)0x01;</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1368,12 +1340,12 @@
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>0</v>
+      <c r="B76" s="1">
+        <v>10</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="2"/>
-        <v>buffer[72]=(byte)0x00;</v>
+        <v>buffer[72]=(byte)0x10;</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1381,92 +1353,167 @@
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
+      <c r="B77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="2"/>
+        <v>buffer[73]=(byte)0x01;</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
+      <c r="B78" s="1">
+        <v>10</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="2"/>
+        <v>buffer[74]=(byte)0x10;</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
+      <c r="B79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="2"/>
+        <v>buffer[75]=(byte)0x01;</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>30</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="2"/>
+        <v>buffer[76]=(byte)0x30;</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="2"/>
+        <v>buffer[77]=(byte)0x03;</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="2"/>
+        <v>buffer[78]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="2"/>
+        <v>buffer[79]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="2"/>
+        <v>buffer[80]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="2"/>
+        <v>buffer[81]=(byte)0x00;</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="3"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="3"/>
         <v>88</v>
